--- a/한이음 제출서류/2차 신청 임시/실습장비 지원신청서(양식)_2019년도 (1).xlsx
+++ b/한이음 제출서류/2차 신청 임시/실습장비 지원신청서(양식)_2019년도 (1).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeJeungHun\Desktop\Capstan_1\Capstan\한이음 제출서류\2차 신청 임시\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="28035" windowHeight="12660" tabRatio="695" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="28040" windowHeight="12660" tabRatio="695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(양식1)실습장비 지원 신청서" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'(양식2)신청장비 리스트'!$A$1:$M$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'(양식3) 실습장비 활용계획서'!$A$1:$J$70</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>JLS</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -349,7 +354,7 @@
     <author>이효석</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0">
+    <comment ref="K2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="1">
+    <comment ref="C5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="1">
+    <comment ref="D5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1119,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2">
+    <comment ref="G5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="2">
+    <comment ref="J5" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1314,7 @@
     <author>USER</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1421,7 +1426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2402,7 +2407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>(단위:  원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2960,11 +2965,28 @@
 전압을 바꿀 필요가 없어 설계의 단순화를 위해 필요 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[NT117] Coms 디지털 테스터기 (LCD 창멀티테스터전압전류저항등 9개 항목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.icbanq.com/P009229508</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">전자식 도어락이 전압을 측정이 오류난 경우 
+고장 혹은 장비 이상인지 확인에 필요 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -3818,6 +3840,45 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3848,35 +3909,50 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3890,68 +3966,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3972,6 +3994,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4093,6 +4118,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>59765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563282</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2764118" y="4340412"/>
+          <a:ext cx="1198282" cy="1198282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4139,7 +4208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4171,9 +4240,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4205,6 +4275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4380,25 +4451,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="1" max="1" width="1.08203125" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="4.375" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
-    <col min="7" max="7" width="4.375" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.58203125" customWidth="1"/>
+    <col min="6" max="6" width="7.08203125" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="1.75" customWidth="1"/>
   </cols>
@@ -4479,7 +4550,7 @@
       <c r="G6" s="67"/>
       <c r="H6" s="68"/>
     </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:10" ht="20.149999999999999" customHeight="1">
       <c r="B7" s="70"/>
       <c r="C7" s="66" t="s">
         <v>11</v>
@@ -4756,24 +4827,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="9.25" customWidth="1"/>
     <col min="5" max="5" width="7.25" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="6.58203125" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="8.75" customWidth="1"/>
     <col min="10" max="10" width="17.25" customWidth="1"/>
@@ -4787,41 +4858,41 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="26.25">
+    <row r="2" spans="2:12" ht="26">
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="2:12" ht="38.25">
-      <c r="B3" s="92" t="s">
+    <row r="3" spans="2:12" ht="36">
+      <c r="B3" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-    </row>
-    <row r="4" spans="2:12" ht="17.25" thickBot="1">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+    </row>
+    <row r="4" spans="2:12" ht="17.5" thickBot="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4835,7 +4906,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" s="4" customFormat="1" ht="39.75" customHeight="1" thickTop="1">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="94" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -4844,10 +4915,10 @@
       <c r="D5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="80"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="9" t="s">
         <v>2</v>
       </c>
@@ -4860,23 +4931,23 @@
       <c r="J5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="95" t="s">
+      <c r="K5" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="96"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="82"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="87"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="16">
         <v>2</v>
       </c>
@@ -4891,38 +4962,54 @@
         <f t="shared" ref="J6:J15" si="0">G6*H6+I6</f>
         <v>9232</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="122"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B7" s="82"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
+      <c r="D7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="100"/>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
+        <f>5460+540</f>
+        <v>6000</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2500</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="82"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="15">
         <v>3</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="87"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="16">
         <v>1</v>
       </c>
@@ -4936,19 +5023,19 @@
         <f t="shared" si="0"/>
         <v>12480</v>
       </c>
-      <c r="K8" s="88" t="s">
+      <c r="K8" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="94"/>
+      <c r="L8" s="84"/>
     </row>
     <row r="9" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="82"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="15">
         <v>4</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="16"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
@@ -4956,17 +5043,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="94"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B10" s="82"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="15">
         <v>5</v>
       </c>
       <c r="D10" s="35"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="16"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
@@ -4974,17 +5061,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="88"/>
-      <c r="L10" s="94"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="84"/>
     </row>
     <row r="11" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="82"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="15">
         <v>6</v>
       </c>
       <c r="D11" s="35"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="16"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -4992,21 +5079,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="88"/>
-      <c r="L11" s="94"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B12" s="82"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="15">
         <v>7</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="16">
         <v>1</v>
       </c>
@@ -5020,19 +5107,19 @@
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="K12" s="88" t="s">
+      <c r="K12" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="94"/>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B13" s="82"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="15">
         <v>8</v>
       </c>
       <c r="D13" s="36"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5040,32 +5127,32 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="88"/>
-      <c r="L13" s="89"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B14" s="82"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="15">
         <v>9</v>
       </c>
       <c r="D14" s="36"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="89"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B15" s="82"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="15">
         <v>10</v>
       </c>
       <c r="D15" s="34"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -5073,118 +5160,118 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="16" spans="2:12" s="4" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="33"/>
       <c r="J16" s="10">
         <f>SUM(J6:J15)</f>
-        <v>161712</v>
-      </c>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+        <v>170212</v>
+      </c>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
     </row>
     <row r="17" spans="2:12" ht="12" customHeight="1"/>
     <row r="18" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
     <row r="20" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
     </row>
     <row r="21" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
     </row>
     <row r="22" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
     </row>
     <row r="23" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
     </row>
     <row r="24" spans="2:12" ht="25.5" customHeight="1">
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
@@ -5194,6 +5281,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B18:J24"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="B3:L3"/>
@@ -5208,52 +5309,39 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B18:J24"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K12" r:id="rId1"/>
     <hyperlink ref="K8" r:id="rId2" location="none"/>
     <hyperlink ref="K6" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.17" right="0.17" top="0.52" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:I27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.58203125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="17.75" customWidth="1"/>
@@ -5261,10 +5349,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" customHeight="1">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="118"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
@@ -5278,16 +5366,16 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="38.25" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:10" ht="14.25" customHeight="1">
@@ -5313,10 +5401,10 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="106"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="66" t="s">
         <v>49</v>
       </c>
@@ -5327,16 +5415,16 @@
       <c r="I6" s="66"/>
     </row>
     <row r="7" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="29" t="s">
         <v>27</v>
       </c>
@@ -5373,639 +5461,676 @@
       <c r="I9" s="105"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1">
-      <c r="B10" s="101">
+      <c r="B10" s="119">
         <v>1</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="121" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="41"/>
       <c r="F10" s="42"/>
-      <c r="G10" s="111" t="s">
+      <c r="G10" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1">
-      <c r="B11" s="102"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1">
-      <c r="B12" s="102"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="116"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1">
-      <c r="B13" s="102"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1">
-      <c r="B14" s="102"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1">
-      <c r="B15" s="103"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="43"/>
       <c r="D15" s="44"/>
       <c r="E15" s="43"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1">
-      <c r="B16" s="102">
+      <c r="B16" s="104">
         <v>2</v>
       </c>
-      <c r="C16" s="109"/>
+      <c r="C16" s="102" t="s">
+        <v>66</v>
+      </c>
       <c r="D16" s="66"/>
       <c r="E16" s="66"/>
       <c r="F16" s="66"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
+      <c r="G16" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1">
-      <c r="B17" s="102"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="66"/>
       <c r="D17" s="66"/>
       <c r="E17" s="66"/>
       <c r="F17" s="66"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1">
-      <c r="B18" s="102"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
       <c r="E18" s="66"/>
       <c r="F18" s="66"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1">
-      <c r="B19" s="102"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1">
-      <c r="B20" s="102"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
       <c r="E20" s="66"/>
       <c r="F20" s="66"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1">
-      <c r="B21" s="102"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
       <c r="E21" s="66"/>
       <c r="F21" s="66"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1">
-      <c r="B22" s="102">
+      <c r="B22" s="104">
         <v>3</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="C22" s="102" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="66"/>
       <c r="E22" s="66"/>
       <c r="F22" s="66"/>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1">
-      <c r="B23" s="102"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66"/>
       <c r="F23" s="66"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1">
-      <c r="B24" s="102"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="66"/>
       <c r="D24" s="66"/>
       <c r="E24" s="66"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1">
-      <c r="B25" s="102"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1">
-      <c r="B26" s="102"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="66"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1">
-      <c r="B27" s="102"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1">
-      <c r="B28" s="102">
+      <c r="B28" s="104">
         <v>4</v>
       </c>
-      <c r="C28" s="109"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
     </row>
     <row r="29" spans="2:9" ht="18" customHeight="1">
-      <c r="B29" s="102"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1">
-      <c r="B30" s="102"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
     </row>
     <row r="31" spans="2:9" ht="18" customHeight="1">
-      <c r="B31" s="102"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
       <c r="E31" s="66"/>
       <c r="F31" s="66"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1">
-      <c r="B32" s="102"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="66"/>
       <c r="D32" s="66"/>
       <c r="E32" s="66"/>
       <c r="F32" s="66"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
     </row>
     <row r="33" spans="2:9" ht="18" customHeight="1">
-      <c r="B33" s="102"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="66"/>
       <c r="D33" s="66"/>
       <c r="E33" s="66"/>
       <c r="F33" s="66"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1">
-      <c r="B34" s="102">
+      <c r="B34" s="104">
         <v>5</v>
       </c>
-      <c r="C34" s="109"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="66"/>
       <c r="E34" s="66"/>
       <c r="F34" s="66"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
     </row>
     <row r="35" spans="2:9" ht="18" customHeight="1">
-      <c r="B35" s="102"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="66"/>
       <c r="D35" s="66"/>
       <c r="E35" s="66"/>
       <c r="F35" s="66"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="2:9" ht="18" customHeight="1">
-      <c r="B36" s="102"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="66"/>
       <c r="D36" s="66"/>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1">
-      <c r="B37" s="102"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="66"/>
       <c r="D37" s="66"/>
       <c r="E37" s="66"/>
       <c r="F37" s="66"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="108"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1">
-      <c r="B38" s="102"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66"/>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="108"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
     </row>
     <row r="39" spans="2:9" ht="18" customHeight="1">
-      <c r="B39" s="102"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="66"/>
       <c r="D39" s="66"/>
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
     </row>
     <row r="40" spans="2:9" ht="18" customHeight="1">
-      <c r="B40" s="102">
+      <c r="B40" s="104">
         <v>6</v>
       </c>
-      <c r="C40" s="109"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="66"/>
       <c r="E40" s="66"/>
       <c r="F40" s="66"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
     </row>
     <row r="41" spans="2:9" ht="18" customHeight="1">
-      <c r="B41" s="102"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="66"/>
       <c r="D41" s="66"/>
       <c r="E41" s="66"/>
       <c r="F41" s="66"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
     </row>
     <row r="42" spans="2:9" ht="18" customHeight="1">
-      <c r="B42" s="102"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="66"/>
       <c r="D42" s="66"/>
       <c r="E42" s="66"/>
       <c r="F42" s="66"/>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="108"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
     </row>
     <row r="43" spans="2:9" ht="18" customHeight="1">
-      <c r="B43" s="102"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="66"/>
       <c r="D43" s="66"/>
       <c r="E43" s="66"/>
       <c r="F43" s="66"/>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="108"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="2:9" ht="18" customHeight="1">
-      <c r="B44" s="102"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
       <c r="E44" s="66"/>
       <c r="F44" s="66"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
     </row>
     <row r="45" spans="2:9" ht="18" customHeight="1">
-      <c r="B45" s="102"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="66"/>
       <c r="D45" s="66"/>
       <c r="E45" s="66"/>
       <c r="F45" s="66"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
+      <c r="G45" s="101"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="101"/>
     </row>
     <row r="46" spans="2:9" ht="18" customHeight="1">
-      <c r="B46" s="102">
+      <c r="B46" s="104">
         <v>7</v>
       </c>
-      <c r="C46" s="109" t="s">
+      <c r="C46" s="102" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="66"/>
       <c r="E46" s="66"/>
       <c r="F46" s="66"/>
-      <c r="G46" s="107" t="s">
+      <c r="G46" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
     </row>
     <row r="47" spans="2:9" ht="18" customHeight="1">
-      <c r="B47" s="102"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="66"/>
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
     </row>
     <row r="48" spans="2:9" ht="18" customHeight="1">
-      <c r="B48" s="102"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="66"/>
       <c r="D48" s="66"/>
       <c r="E48" s="66"/>
       <c r="F48" s="66"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
     </row>
     <row r="49" spans="2:9" ht="18" customHeight="1">
-      <c r="B49" s="102"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="66"/>
       <c r="D49" s="66"/>
       <c r="E49" s="66"/>
       <c r="F49" s="66"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
     </row>
     <row r="50" spans="2:9" ht="18" customHeight="1">
-      <c r="B50" s="102"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
       <c r="F50" s="66"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
     </row>
     <row r="51" spans="2:9" ht="18" customHeight="1">
-      <c r="B51" s="102"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="66"/>
       <c r="D51" s="66"/>
       <c r="E51" s="66"/>
       <c r="F51" s="66"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
     </row>
     <row r="52" spans="2:9" ht="18" customHeight="1">
-      <c r="B52" s="102">
+      <c r="B52" s="104">
         <v>8</v>
       </c>
-      <c r="C52" s="109"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="66"/>
       <c r="E52" s="66"/>
       <c r="F52" s="66"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
     </row>
     <row r="53" spans="2:9" ht="18" customHeight="1">
-      <c r="B53" s="102"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="66"/>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
       <c r="F53" s="66"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="2:9" ht="18" customHeight="1">
-      <c r="B54" s="102"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="66"/>
       <c r="D54" s="66"/>
       <c r="E54" s="66"/>
       <c r="F54" s="66"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
     </row>
     <row r="55" spans="2:9" ht="18" customHeight="1">
-      <c r="B55" s="102"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="66"/>
       <c r="D55" s="66"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
     </row>
     <row r="56" spans="2:9" ht="18" customHeight="1">
-      <c r="B56" s="102"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="66"/>
       <c r="D56" s="66"/>
       <c r="E56" s="66"/>
       <c r="F56" s="66"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
     </row>
     <row r="57" spans="2:9" ht="18" customHeight="1">
-      <c r="B57" s="102"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66"/>
       <c r="E57" s="66"/>
       <c r="F57" s="66"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
     </row>
     <row r="58" spans="2:9" ht="18" customHeight="1">
-      <c r="B58" s="102">
+      <c r="B58" s="104">
         <v>9</v>
       </c>
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
       <c r="E58" s="66"/>
       <c r="F58" s="66"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
     </row>
     <row r="59" spans="2:9" ht="18" customHeight="1">
-      <c r="B59" s="102"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="66"/>
       <c r="D59" s="66"/>
       <c r="E59" s="66"/>
       <c r="F59" s="66"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
+      <c r="G59" s="101"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
     </row>
     <row r="60" spans="2:9" ht="18" customHeight="1">
-      <c r="B60" s="102"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="66"/>
       <c r="D60" s="66"/>
       <c r="E60" s="66"/>
       <c r="F60" s="66"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
     </row>
     <row r="61" spans="2:9" ht="18" customHeight="1">
-      <c r="B61" s="102"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="66"/>
       <c r="D61" s="66"/>
       <c r="E61" s="66"/>
       <c r="F61" s="66"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="101"/>
+      <c r="I61" s="101"/>
     </row>
     <row r="62" spans="2:9" ht="18" customHeight="1">
-      <c r="B62" s="102"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="66"/>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
       <c r="F62" s="66"/>
-      <c r="G62" s="108"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
     </row>
     <row r="63" spans="2:9" ht="18" customHeight="1">
-      <c r="B63" s="102"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="66"/>
       <c r="D63" s="66"/>
       <c r="E63" s="66"/>
       <c r="F63" s="66"/>
-      <c r="G63" s="108"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
     </row>
     <row r="64" spans="2:9" ht="18" customHeight="1">
-      <c r="B64" s="102">
+      <c r="B64" s="104">
         <v>10</v>
       </c>
       <c r="C64" s="66"/>
       <c r="D64" s="66"/>
       <c r="E64" s="66"/>
       <c r="F64" s="66"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
     </row>
     <row r="65" spans="2:9" ht="18" customHeight="1">
-      <c r="B65" s="102"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="66"/>
       <c r="D65" s="66"/>
       <c r="E65" s="66"/>
       <c r="F65" s="66"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
     </row>
     <row r="66" spans="2:9" ht="18" customHeight="1">
-      <c r="B66" s="102"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
       <c r="E66" s="66"/>
       <c r="F66" s="66"/>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
     </row>
     <row r="67" spans="2:9" ht="18" customHeight="1">
-      <c r="B67" s="102"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="66"/>
       <c r="D67" s="66"/>
       <c r="E67" s="66"/>
       <c r="F67" s="66"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
     </row>
     <row r="68" spans="2:9" ht="18" customHeight="1">
-      <c r="B68" s="102"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="66"/>
       <c r="D68" s="66"/>
       <c r="E68" s="66"/>
       <c r="F68" s="66"/>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
     </row>
     <row r="69" spans="2:9" ht="18" customHeight="1">
-      <c r="B69" s="102"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="66"/>
       <c r="D69" s="66"/>
       <c r="E69" s="66"/>
       <c r="F69" s="66"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="E10:F15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:D15"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="G28:I33"/>
+    <mergeCell ref="G34:I39"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:D21"/>
+    <mergeCell ref="E16:F21"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C22:D27"/>
+    <mergeCell ref="E22:F27"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="C28:D33"/>
+    <mergeCell ref="E28:F33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:D39"/>
+    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="G52:I57"/>
+    <mergeCell ref="G58:I63"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C40:D45"/>
+    <mergeCell ref="E40:F45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:D51"/>
+    <mergeCell ref="E46:F51"/>
+    <mergeCell ref="G40:I45"/>
+    <mergeCell ref="G46:I51"/>
     <mergeCell ref="G64:I69"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:G7"/>
@@ -6022,43 +6147,10 @@
     <mergeCell ref="B58:B63"/>
     <mergeCell ref="C58:D63"/>
     <mergeCell ref="E58:F63"/>
-    <mergeCell ref="G52:I57"/>
-    <mergeCell ref="G58:I63"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C40:D45"/>
-    <mergeCell ref="E40:F45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:D51"/>
-    <mergeCell ref="E46:F51"/>
-    <mergeCell ref="G40:I45"/>
-    <mergeCell ref="G46:I51"/>
-    <mergeCell ref="G28:I33"/>
-    <mergeCell ref="G34:I39"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:D21"/>
-    <mergeCell ref="E16:F21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C22:D27"/>
-    <mergeCell ref="E22:F27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="C28:D33"/>
-    <mergeCell ref="E28:F33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:D39"/>
-    <mergeCell ref="E34:F39"/>
-    <mergeCell ref="E10:F15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:D15"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
